--- a/Output/merged_data.xlsx
+++ b/Output/merged_data.xlsx
@@ -1635,55 +1635,111 @@
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>3</v>
+      </c>
       <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
+      <c r="T3" t="n">
+        <v>3</v>
+      </c>
       <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
+      <c r="V3" t="n">
+        <v>3</v>
+      </c>
       <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
+      <c r="X3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>3</v>
+      </c>
       <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
+      <c r="AB3" t="n">
+        <v>3</v>
+      </c>
       <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
+      <c r="AD3" t="n">
+        <v>3</v>
+      </c>
       <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
+      <c r="AF3" t="n">
+        <v>3</v>
+      </c>
       <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
+      <c r="AH3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>3</v>
+      </c>
       <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="inlineStr"/>
+      <c r="AL3" t="n">
+        <v>3</v>
+      </c>
       <c r="AM3" t="inlineStr"/>
-      <c r="AN3" t="inlineStr"/>
+      <c r="AN3" t="n">
+        <v>3</v>
+      </c>
       <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="inlineStr"/>
+      <c r="AP3" t="n">
+        <v>3</v>
+      </c>
       <c r="AQ3" t="inlineStr"/>
-      <c r="AR3" t="inlineStr"/>
+      <c r="AR3" t="n">
+        <v>2</v>
+      </c>
       <c r="AS3" t="inlineStr"/>
-      <c r="AT3" t="inlineStr"/>
-      <c r="AU3" t="inlineStr"/>
-      <c r="AV3" t="inlineStr"/>
+      <c r="AT3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>3</v>
+      </c>
       <c r="AW3" t="inlineStr"/>
-      <c r="AX3" t="inlineStr"/>
+      <c r="AX3" t="n">
+        <v>3</v>
+      </c>
       <c r="AY3" t="inlineStr"/>
-      <c r="AZ3" t="inlineStr"/>
+      <c r="AZ3" t="n">
+        <v>0</v>
+      </c>
       <c r="BA3" t="inlineStr"/>
-      <c r="BB3" t="inlineStr"/>
+      <c r="BB3" t="n">
+        <v>0</v>
+      </c>
       <c r="BC3" t="inlineStr"/>
-      <c r="BD3" t="inlineStr"/>
-      <c r="BE3" t="inlineStr"/>
-      <c r="BF3" t="inlineStr"/>
+      <c r="BD3" t="n">
+        <v>7</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0</v>
+      </c>
       <c r="BG3" t="inlineStr"/>
-      <c r="BH3" t="inlineStr"/>
+      <c r="BH3" t="n">
+        <v>0</v>
+      </c>
       <c r="BI3" t="inlineStr"/>
       <c r="BJ3" t="inlineStr"/>
       <c r="BK3" t="inlineStr"/>
-      <c r="BL3" t="inlineStr"/>
+      <c r="BL3" t="n">
+        <v>0</v>
+      </c>
       <c r="BM3" t="inlineStr"/>
-      <c r="BN3" t="inlineStr"/>
+      <c r="BN3" t="n">
+        <v>0</v>
+      </c>
       <c r="BO3" t="inlineStr"/>
       <c r="BP3" t="inlineStr"/>
       <c r="BQ3" t="inlineStr"/>
@@ -1698,62 +1754,134 @@
       <c r="BZ3" t="inlineStr"/>
       <c r="CA3" t="inlineStr"/>
       <c r="CB3" t="inlineStr"/>
-      <c r="CC3" t="inlineStr"/>
-      <c r="CD3" t="inlineStr"/>
-      <c r="CE3" t="inlineStr"/>
-      <c r="CF3" t="inlineStr"/>
-      <c r="CG3" t="inlineStr"/>
+      <c r="CC3" t="n">
+        <v>2</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>2.167</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>1.375</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>3</v>
+      </c>
       <c r="CH3" t="inlineStr"/>
-      <c r="CI3" t="inlineStr"/>
+      <c r="CI3" t="n">
+        <v>3</v>
+      </c>
       <c r="CJ3" t="inlineStr"/>
-      <c r="CK3" t="inlineStr"/>
+      <c r="CK3" t="n">
+        <v>3</v>
+      </c>
       <c r="CL3" t="inlineStr"/>
-      <c r="CM3" t="inlineStr"/>
-      <c r="CN3" t="inlineStr"/>
-      <c r="CO3" t="inlineStr"/>
+      <c r="CM3" t="n">
+        <v>6</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>7</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>2</v>
+      </c>
       <c r="CP3" t="inlineStr"/>
-      <c r="CQ3" t="inlineStr"/>
+      <c r="CQ3" t="n">
+        <v>3</v>
+      </c>
       <c r="CR3" t="inlineStr"/>
-      <c r="CS3" t="inlineStr"/>
+      <c r="CS3" t="n">
+        <v>3</v>
+      </c>
       <c r="CT3" t="inlineStr"/>
-      <c r="CU3" t="inlineStr"/>
+      <c r="CU3" t="n">
+        <v>2</v>
+      </c>
       <c r="CV3" t="inlineStr"/>
-      <c r="CW3" t="inlineStr"/>
-      <c r="CX3" t="inlineStr"/>
-      <c r="CY3" t="inlineStr"/>
+      <c r="CW3" t="n">
+        <v>5</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>7</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>3</v>
+      </c>
       <c r="CZ3" t="inlineStr"/>
-      <c r="DA3" t="inlineStr"/>
+      <c r="DA3" t="n">
+        <v>3</v>
+      </c>
       <c r="DB3" t="inlineStr"/>
-      <c r="DC3" t="inlineStr"/>
+      <c r="DC3" t="n">
+        <v>3</v>
+      </c>
       <c r="DD3" t="inlineStr"/>
-      <c r="DE3" t="inlineStr"/>
+      <c r="DE3" t="n">
+        <v>2</v>
+      </c>
       <c r="DF3" t="inlineStr"/>
-      <c r="DG3" t="inlineStr"/>
+      <c r="DG3" t="n">
+        <v>3</v>
+      </c>
       <c r="DH3" t="inlineStr"/>
-      <c r="DI3" t="inlineStr"/>
-      <c r="DJ3" t="inlineStr"/>
-      <c r="DK3" t="inlineStr"/>
+      <c r="DI3" t="n">
+        <v>5</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>5</v>
+      </c>
+      <c r="DK3" t="n">
+        <v>3</v>
+      </c>
       <c r="DL3" t="inlineStr"/>
-      <c r="DM3" t="inlineStr"/>
+      <c r="DM3" t="n">
+        <v>3</v>
+      </c>
       <c r="DN3" t="inlineStr"/>
-      <c r="DO3" t="inlineStr"/>
+      <c r="DO3" t="n">
+        <v>3</v>
+      </c>
       <c r="DP3" t="inlineStr"/>
-      <c r="DQ3" t="inlineStr"/>
+      <c r="DQ3" t="n">
+        <v>3</v>
+      </c>
       <c r="DR3" t="inlineStr"/>
-      <c r="DS3" t="inlineStr"/>
-      <c r="DT3" t="inlineStr"/>
-      <c r="DU3" t="inlineStr"/>
+      <c r="DS3" t="n">
+        <v>5</v>
+      </c>
+      <c r="DT3" t="n">
+        <v>5</v>
+      </c>
+      <c r="DU3" t="n">
+        <v>3</v>
+      </c>
       <c r="DV3" t="inlineStr"/>
-      <c r="DW3" t="inlineStr"/>
+      <c r="DW3" t="n">
+        <v>3</v>
+      </c>
       <c r="DX3" t="inlineStr"/>
-      <c r="DY3" t="inlineStr"/>
-      <c r="DZ3" t="inlineStr"/>
-      <c r="EA3" t="inlineStr"/>
+      <c r="DY3" t="n">
+        <v>7</v>
+      </c>
+      <c r="DZ3" t="n">
+        <v>6</v>
+      </c>
+      <c r="EA3" t="n">
+        <v>3</v>
+      </c>
       <c r="EB3" t="inlineStr"/>
-      <c r="EC3" t="inlineStr"/>
+      <c r="EC3" t="n">
+        <v>3</v>
+      </c>
       <c r="ED3" t="inlineStr"/>
-      <c r="EE3" t="inlineStr"/>
-      <c r="EF3" t="inlineStr"/>
+      <c r="EE3" t="n">
+        <v>7</v>
+      </c>
+      <c r="EF3" t="n">
+        <v>7</v>
+      </c>
       <c r="EG3" t="inlineStr"/>
       <c r="EH3" t="inlineStr"/>
       <c r="EI3" t="inlineStr"/>
@@ -1765,10 +1893,18 @@
       <c r="EO3" t="inlineStr"/>
       <c r="EP3" t="inlineStr"/>
       <c r="EQ3" t="inlineStr"/>
-      <c r="ER3" t="inlineStr"/>
-      <c r="ES3" t="inlineStr"/>
-      <c r="ET3" t="inlineStr"/>
-      <c r="EU3" t="inlineStr"/>
+      <c r="ER3" t="n">
+        <v>2.846</v>
+      </c>
+      <c r="ES3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="ET3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EU3" t="n">
+        <v>2.875</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1903,26 +2039,48 @@
       <c r="AT4" t="n">
         <v>5</v>
       </c>
-      <c r="AU4" t="inlineStr"/>
-      <c r="AV4" t="inlineStr"/>
+      <c r="AU4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>3</v>
+      </c>
       <c r="AW4" t="inlineStr"/>
-      <c r="AX4" t="inlineStr"/>
+      <c r="AX4" t="n">
+        <v>3</v>
+      </c>
       <c r="AY4" t="inlineStr"/>
-      <c r="AZ4" t="inlineStr"/>
+      <c r="AZ4" t="n">
+        <v>0</v>
+      </c>
       <c r="BA4" t="inlineStr"/>
-      <c r="BB4" t="inlineStr"/>
+      <c r="BB4" t="n">
+        <v>0</v>
+      </c>
       <c r="BC4" t="inlineStr"/>
-      <c r="BD4" t="inlineStr"/>
-      <c r="BE4" t="inlineStr"/>
-      <c r="BF4" t="inlineStr"/>
+      <c r="BD4" t="n">
+        <v>7</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>0</v>
+      </c>
       <c r="BG4" t="inlineStr"/>
-      <c r="BH4" t="inlineStr"/>
+      <c r="BH4" t="n">
+        <v>0</v>
+      </c>
       <c r="BI4" t="inlineStr"/>
       <c r="BJ4" t="inlineStr"/>
       <c r="BK4" t="inlineStr"/>
-      <c r="BL4" t="inlineStr"/>
+      <c r="BL4" t="n">
+        <v>0</v>
+      </c>
       <c r="BM4" t="inlineStr"/>
-      <c r="BN4" t="inlineStr"/>
+      <c r="BN4" t="n">
+        <v>0</v>
+      </c>
       <c r="BO4" t="inlineStr"/>
       <c r="BP4" t="inlineStr"/>
       <c r="BQ4" t="inlineStr"/>
@@ -1949,58 +2107,122 @@
       <c r="CF4" t="n">
         <v>1.86</v>
       </c>
-      <c r="CG4" t="inlineStr"/>
+      <c r="CG4" t="n">
+        <v>3</v>
+      </c>
       <c r="CH4" t="inlineStr"/>
-      <c r="CI4" t="inlineStr"/>
+      <c r="CI4" t="n">
+        <v>3</v>
+      </c>
       <c r="CJ4" t="inlineStr"/>
-      <c r="CK4" t="inlineStr"/>
+      <c r="CK4" t="n">
+        <v>3</v>
+      </c>
       <c r="CL4" t="inlineStr"/>
-      <c r="CM4" t="inlineStr"/>
-      <c r="CN4" t="inlineStr"/>
-      <c r="CO4" t="inlineStr"/>
+      <c r="CM4" t="n">
+        <v>7</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>7</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>2</v>
+      </c>
       <c r="CP4" t="inlineStr"/>
-      <c r="CQ4" t="inlineStr"/>
+      <c r="CQ4" t="n">
+        <v>3</v>
+      </c>
       <c r="CR4" t="inlineStr"/>
-      <c r="CS4" t="inlineStr"/>
+      <c r="CS4" t="n">
+        <v>3</v>
+      </c>
       <c r="CT4" t="inlineStr"/>
-      <c r="CU4" t="inlineStr"/>
+      <c r="CU4" t="n">
+        <v>3</v>
+      </c>
       <c r="CV4" t="inlineStr"/>
-      <c r="CW4" t="inlineStr"/>
-      <c r="CX4" t="inlineStr"/>
-      <c r="CY4" t="inlineStr"/>
+      <c r="CW4" t="n">
+        <v>7</v>
+      </c>
+      <c r="CX4" t="n">
+        <v>7</v>
+      </c>
+      <c r="CY4" t="n">
+        <v>3</v>
+      </c>
       <c r="CZ4" t="inlineStr"/>
-      <c r="DA4" t="inlineStr"/>
+      <c r="DA4" t="n">
+        <v>3</v>
+      </c>
       <c r="DB4" t="inlineStr"/>
-      <c r="DC4" t="inlineStr"/>
+      <c r="DC4" t="n">
+        <v>2</v>
+      </c>
       <c r="DD4" t="inlineStr"/>
-      <c r="DE4" t="inlineStr"/>
+      <c r="DE4" t="n">
+        <v>2</v>
+      </c>
       <c r="DF4" t="inlineStr"/>
-      <c r="DG4" t="inlineStr"/>
+      <c r="DG4" t="n">
+        <v>3</v>
+      </c>
       <c r="DH4" t="inlineStr"/>
-      <c r="DI4" t="inlineStr"/>
-      <c r="DJ4" t="inlineStr"/>
-      <c r="DK4" t="inlineStr"/>
+      <c r="DI4" t="n">
+        <v>7</v>
+      </c>
+      <c r="DJ4" t="n">
+        <v>7</v>
+      </c>
+      <c r="DK4" t="n">
+        <v>3</v>
+      </c>
       <c r="DL4" t="inlineStr"/>
-      <c r="DM4" t="inlineStr"/>
+      <c r="DM4" t="n">
+        <v>3</v>
+      </c>
       <c r="DN4" t="inlineStr"/>
-      <c r="DO4" t="inlineStr"/>
+      <c r="DO4" t="n">
+        <v>2</v>
+      </c>
       <c r="DP4" t="inlineStr"/>
-      <c r="DQ4" t="inlineStr"/>
+      <c r="DQ4" t="n">
+        <v>3</v>
+      </c>
       <c r="DR4" t="inlineStr"/>
-      <c r="DS4" t="inlineStr"/>
-      <c r="DT4" t="inlineStr"/>
-      <c r="DU4" t="inlineStr"/>
+      <c r="DS4" t="n">
+        <v>5</v>
+      </c>
+      <c r="DT4" t="n">
+        <v>6</v>
+      </c>
+      <c r="DU4" t="n">
+        <v>2</v>
+      </c>
       <c r="DV4" t="inlineStr"/>
-      <c r="DW4" t="inlineStr"/>
+      <c r="DW4" t="n">
+        <v>3</v>
+      </c>
       <c r="DX4" t="inlineStr"/>
-      <c r="DY4" t="inlineStr"/>
-      <c r="DZ4" t="inlineStr"/>
-      <c r="EA4" t="inlineStr"/>
+      <c r="DY4" t="n">
+        <v>5</v>
+      </c>
+      <c r="DZ4" t="n">
+        <v>6</v>
+      </c>
+      <c r="EA4" t="n">
+        <v>3</v>
+      </c>
       <c r="EB4" t="inlineStr"/>
-      <c r="EC4" t="inlineStr"/>
+      <c r="EC4" t="n">
+        <v>3</v>
+      </c>
       <c r="ED4" t="inlineStr"/>
-      <c r="EE4" t="inlineStr"/>
-      <c r="EF4" t="inlineStr"/>
+      <c r="EE4" t="n">
+        <v>7</v>
+      </c>
+      <c r="EF4" t="n">
+        <v>7</v>
+      </c>
       <c r="EG4" t="inlineStr"/>
       <c r="EH4" t="inlineStr"/>
       <c r="EI4" t="inlineStr"/>

--- a/Output/merged_data.xlsx
+++ b/Output/merged_data.xlsx
@@ -1388,17 +1388,27 @@
       <c r="BQ2" t="n">
         <v>6</v>
       </c>
-      <c r="BR2" t="inlineStr"/>
+      <c r="BR2" t="n">
+        <v>7</v>
+      </c>
       <c r="BS2" t="inlineStr"/>
-      <c r="BT2" t="inlineStr"/>
+      <c r="BT2" t="n">
+        <v>6</v>
+      </c>
       <c r="BU2" t="inlineStr"/>
       <c r="BV2" t="inlineStr"/>
       <c r="BW2" t="inlineStr"/>
       <c r="BX2" t="inlineStr"/>
       <c r="BY2" t="inlineStr"/>
-      <c r="BZ2" t="inlineStr"/>
-      <c r="CA2" t="inlineStr"/>
-      <c r="CB2" t="inlineStr"/>
+      <c r="BZ2" t="n">
+        <v>6</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>6</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>0</v>
+      </c>
       <c r="CC2" t="n">
         <v>1.423</v>
       </c>
@@ -1547,17 +1557,27 @@
       <c r="ED2" t="inlineStr"/>
       <c r="EE2" t="inlineStr"/>
       <c r="EF2" t="inlineStr"/>
-      <c r="EG2" t="inlineStr"/>
+      <c r="EG2" t="n">
+        <v>7</v>
+      </c>
       <c r="EH2" t="inlineStr"/>
-      <c r="EI2" t="inlineStr"/>
+      <c r="EI2" t="n">
+        <v>6</v>
+      </c>
       <c r="EJ2" t="inlineStr"/>
       <c r="EK2" t="inlineStr"/>
       <c r="EL2" t="inlineStr"/>
       <c r="EM2" t="inlineStr"/>
       <c r="EN2" t="inlineStr"/>
-      <c r="EO2" t="inlineStr"/>
-      <c r="EP2" t="inlineStr"/>
-      <c r="EQ2" t="inlineStr"/>
+      <c r="EO2" t="n">
+        <v>6</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>7</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>0</v>
+      </c>
       <c r="ER2" t="n">
         <v>1.577</v>
       </c>
@@ -1743,17 +1763,27 @@
       <c r="BO3" t="inlineStr"/>
       <c r="BP3" t="inlineStr"/>
       <c r="BQ3" t="inlineStr"/>
-      <c r="BR3" t="inlineStr"/>
+      <c r="BR3" t="n">
+        <v>4</v>
+      </c>
       <c r="BS3" t="inlineStr"/>
-      <c r="BT3" t="inlineStr"/>
+      <c r="BT3" t="n">
+        <v>5</v>
+      </c>
       <c r="BU3" t="inlineStr"/>
       <c r="BV3" t="inlineStr"/>
       <c r="BW3" t="inlineStr"/>
       <c r="BX3" t="inlineStr"/>
       <c r="BY3" t="inlineStr"/>
-      <c r="BZ3" t="inlineStr"/>
-      <c r="CA3" t="inlineStr"/>
-      <c r="CB3" t="inlineStr"/>
+      <c r="BZ3" t="n">
+        <v>6</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>5</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>0</v>
+      </c>
       <c r="CC3" t="n">
         <v>2</v>
       </c>
@@ -1882,17 +1912,27 @@
       <c r="EF3" t="n">
         <v>7</v>
       </c>
-      <c r="EG3" t="inlineStr"/>
+      <c r="EG3" t="n">
+        <v>6</v>
+      </c>
       <c r="EH3" t="inlineStr"/>
-      <c r="EI3" t="inlineStr"/>
+      <c r="EI3" t="n">
+        <v>7</v>
+      </c>
       <c r="EJ3" t="inlineStr"/>
       <c r="EK3" t="inlineStr"/>
       <c r="EL3" t="inlineStr"/>
       <c r="EM3" t="inlineStr"/>
       <c r="EN3" t="inlineStr"/>
-      <c r="EO3" t="inlineStr"/>
-      <c r="EP3" t="inlineStr"/>
-      <c r="EQ3" t="inlineStr"/>
+      <c r="EO3" t="n">
+        <v>5</v>
+      </c>
+      <c r="EP3" t="n">
+        <v>7</v>
+      </c>
+      <c r="EQ3" t="n">
+        <v>0</v>
+      </c>
       <c r="ER3" t="n">
         <v>2.846</v>
       </c>
@@ -2084,17 +2124,27 @@
       <c r="BO4" t="inlineStr"/>
       <c r="BP4" t="inlineStr"/>
       <c r="BQ4" t="inlineStr"/>
-      <c r="BR4" t="inlineStr"/>
+      <c r="BR4" t="n">
+        <v>7</v>
+      </c>
       <c r="BS4" t="inlineStr"/>
-      <c r="BT4" t="inlineStr"/>
+      <c r="BT4" t="n">
+        <v>7</v>
+      </c>
       <c r="BU4" t="inlineStr"/>
       <c r="BV4" t="inlineStr"/>
       <c r="BW4" t="inlineStr"/>
       <c r="BX4" t="inlineStr"/>
       <c r="BY4" t="inlineStr"/>
-      <c r="BZ4" t="inlineStr"/>
-      <c r="CA4" t="inlineStr"/>
-      <c r="CB4" t="inlineStr"/>
+      <c r="BZ4" t="n">
+        <v>7</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>7</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>0</v>
+      </c>
       <c r="CC4" t="n">
         <v>1.923</v>
       </c>
@@ -2223,17 +2273,27 @@
       <c r="EF4" t="n">
         <v>7</v>
       </c>
-      <c r="EG4" t="inlineStr"/>
+      <c r="EG4" t="n">
+        <v>7</v>
+      </c>
       <c r="EH4" t="inlineStr"/>
-      <c r="EI4" t="inlineStr"/>
+      <c r="EI4" t="n">
+        <v>7</v>
+      </c>
       <c r="EJ4" t="inlineStr"/>
       <c r="EK4" t="inlineStr"/>
       <c r="EL4" t="inlineStr"/>
       <c r="EM4" t="inlineStr"/>
       <c r="EN4" t="inlineStr"/>
-      <c r="EO4" t="inlineStr"/>
-      <c r="EP4" t="inlineStr"/>
-      <c r="EQ4" t="inlineStr"/>
+      <c r="EO4" t="n">
+        <v>7</v>
+      </c>
+      <c r="EP4" t="n">
+        <v>7</v>
+      </c>
+      <c r="EQ4" t="n">
+        <v>0</v>
+      </c>
       <c r="ER4" t="n">
         <v>1.962</v>
       </c>
